--- a/assets/sheets/3a Example Solution.xlsx
+++ b/assets/sheets/3a Example Solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurennelsen/Dropbox/UCCS/Teaching/QUAN 2010/Spring 2024/Quizzes/Example Quizzes/Example Quiz Solutions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurennelsen/Dropbox/UCCS/Teaching/QUAN 2010/Summer 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84286A3A-75A9-FC44-A6C9-10ED1F768EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4B74C-0F86-7C4C-A27F-8C2F428B7E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{1C3E5859-E283-8F40-98A0-BBECDF394710}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="37960" windowHeight="21600" xr2:uid="{4732E914-27BC-BE44-9F69-E832D7230BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,39 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Airline</t>
-  </si>
-  <si>
-    <t>On-Time Flights</t>
-  </si>
-  <si>
-    <t>Late Flights</t>
-  </si>
-  <si>
-    <t>Southwest</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Frontier</t>
-  </si>
-  <si>
-    <t>(a)</t>
-  </si>
-  <si>
-    <t>(b)</t>
-  </si>
-  <si>
-    <t>(d)</t>
-  </si>
-  <si>
-    <t>(c)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>On-Time Deliveries</t>
+  </si>
+  <si>
+    <t>Late Deliveries</t>
+  </si>
+  <si>
+    <t>Company A</t>
+  </si>
+  <si>
+    <t>Company B</t>
+  </si>
+  <si>
+    <t>Company C</t>
+  </si>
+  <si>
+    <t>A.  What is the probability that a randomly selected delivery was from Company C and was on-time?</t>
+  </si>
+  <si>
+    <t>B.  What is the probability that a randomly selected delivery was from Company C or was on-time?</t>
+  </si>
+  <si>
+    <t>C.  Given that the delivery was on-time, what is the probability it was from Company C?</t>
+  </si>
+  <si>
+    <t>D.  Given that the delivery was from Company C, what is the probability that it was late?</t>
   </si>
   <si>
     <t>Totals:</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>150/700</t>
+  </si>
+  <si>
+    <t>387/700</t>
+  </si>
+  <si>
+    <t>150/355</t>
+  </si>
+  <si>
+    <t>32/182</t>
+  </si>
+  <si>
+    <t>The answers in green are the probabilities written as fractions</t>
+  </si>
+  <si>
+    <t>The answers in purple are the probabilities written as decimals</t>
   </si>
 </sst>
 </file>
@@ -79,7 +100,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,20 +108,31 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -108,189 +140,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -319,39 +179,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -403,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -514,13 +374,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -529,6 +382,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -593,140 +453,191 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB555B2-4404-8649-A1E3-961F14A75BFC}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C01DDEC-1EBF-034E-8AAE-A2258E4F2D03}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="245" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4">
+        <v>240</v>
+      </c>
+      <c r="D2" s="1">
+        <f>SUM(B2:C2)</f>
+        <v>320</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>125</v>
+      </c>
+      <c r="C3" s="4">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D4" si="0">SUM(B3:C3)</f>
+        <v>198</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>240</v>
-      </c>
-      <c r="C2" s="12">
-        <v>70</v>
-      </c>
-      <c r="D2" s="5">
-        <f>SUM(B2:C2)</f>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>260</v>
-      </c>
-      <c r="C3" s="12">
-        <v>140</v>
-      </c>
-      <c r="D3" s="5">
-        <f>SUM(B3:C3)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14">
-        <v>170</v>
-      </c>
-      <c r="C4" s="15">
-        <v>65</v>
-      </c>
-      <c r="D4" s="5">
-        <f>SUM(B4:C4)</f>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="B5" s="2">
         <f>SUM(B2:B4)</f>
-        <v>670</v>
-      </c>
-      <c r="C5" s="7">
+        <v>355</v>
+      </c>
+      <c r="C5" s="1">
         <f>SUM(C2:C4)</f>
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="D5" s="1">
-        <f>SUM(D2:D4)</f>
-        <v>945</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+        <f>SUM(B5:C5)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16">
-        <f>B2/D5</f>
-        <v>0.25396825396825395</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B4/D5</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16">
-        <f>(B4+C4+B3+B2)/D5</f>
-        <v>0.77777777777777779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>B5+D4-B4</f>
+        <v>387</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <f>A11/D5</f>
+        <v>0.55285714285714282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <f>B4/B5</f>
+        <v>0.42253521126760563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16">
-        <f>C3/C5</f>
-        <v>0.50909090909090904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16">
-        <f>C2/D2</f>
-        <v>0.22580645161290322</v>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <f>32/182</f>
+        <v>0.17582417582417584</v>
       </c>
     </row>
   </sheetData>
